--- a/EK-TM4C1294XL Keil Projects/Projeto Final - PONG - Giovanni e Anderson/Documentos/Tabela.xlsx
+++ b/EK-TM4C1294XL Keil Projects/Projeto Final - PONG - Giovanni e Anderson/Documentos/Tabela.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Desktop\UTFPR\EK-TM4C1294XL Keil Projects\Projeto Final - PONG - Giovanni e Anderson\Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F94C103-B3B3-4F66-B968-BF102D2E8215}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -76,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,13 +604,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -642,9 +656,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,9 +690,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,9 +742,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -885,17 +935,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="17" width="8.7109375" customWidth="1"/>
+    <col min="2" max="17" width="5.7109375" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" customWidth="1"/>
     <col min="22" max="22" width="10.140625" customWidth="1"/>
@@ -903,7 +953,7 @@
     <col min="27" max="27" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
@@ -912,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +1054,7 @@
         <v>0xFFFF</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1146,7 @@
         <v>0x87F1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1238,7 @@
         <v>0xBBED</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1330,7 @@
         <v>0xBBED</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1422,7 @@
         <v>0xBBED</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1514,7 @@
         <v>0xBBED</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -1556,7 +1606,7 @@
         <v>0x87F0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1698,7 @@
         <v>0xBFFD</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
@@ -1740,7 +1790,7 @@
         <v>0xA2D9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +1882,7 @@
         <v>0xAAD5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
@@ -1924,7 +1974,7 @@
         <v>0xAA55</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
@@ -2016,7 +2066,7 @@
         <v>0xAA15</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -2108,7 +2158,7 @@
         <v>0xAA95</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -2200,7 +2250,7 @@
         <v>0xAAD5</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>17</v>
       </c>
@@ -2292,7 +2342,7 @@
         <v>0xA2DB</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:27" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
@@ -2384,9 +2434,9 @@
         <v>0xFFFF</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" thickTop="1"/>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>2</v>
       </c>
@@ -2395,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>3</v>
       </c>
@@ -2487,7 +2537,7 @@
         <v>0x6107</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>4</v>
       </c>
@@ -2579,7 +2629,7 @@
         <v>0x91E4</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
@@ -2671,7 +2721,7 @@
         <v>0x8157</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>6</v>
       </c>
@@ -2763,7 +2813,7 @@
         <v>0xB154</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>7</v>
       </c>
@@ -2855,7 +2905,7 @@
         <v>0x9557</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>8</v>
       </c>
@@ -2947,7 +2997,7 @@
         <v>0x6A00</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>9</v>
       </c>
@@ -3039,7 +3089,7 @@
         <v>0x0E00</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -3131,7 +3181,7 @@
         <v>0x0A00</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>11</v>
       </c>
@@ -3223,7 +3273,7 @@
         <v>0x0A00</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>12</v>
       </c>
@@ -3315,7 +3365,7 @@
         <v>0x8000</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>13</v>
       </c>
@@ -3407,7 +3457,7 @@
         <v>0xF19C</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>14</v>
       </c>
@@ -3499,7 +3549,7 @@
         <v>0xAA52</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
@@ -3591,7 +3641,7 @@
         <v>0xAA52</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>16</v>
       </c>
@@ -3683,7 +3733,7 @@
         <v>0xAA52</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>17</v>
       </c>
@@ -3775,7 +3825,7 @@
         <v>0xAA52</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>18</v>
       </c>
@@ -3867,9 +3917,9 @@
         <v>0xA99C</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" thickTop="1"/>
-    <row r="38" spans="1:27" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>2</v>
       </c>
@@ -3878,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>3</v>
       </c>
@@ -3970,7 +4020,7 @@
         <v>0x6107</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>4</v>
       </c>
@@ -4062,7 +4112,7 @@
         <v>0x91E4</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>5</v>
       </c>
@@ -4154,7 +4204,7 @@
         <v>0x8157</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>6</v>
       </c>
@@ -4246,7 +4296,7 @@
         <v>0xB154</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>7</v>
       </c>
@@ -4338,7 +4388,7 @@
         <v>0x9557</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>8</v>
       </c>
@@ -4430,7 +4480,7 @@
         <v>0x6A00</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>9</v>
       </c>
@@ -4522,7 +4572,7 @@
         <v>0x0E00</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>10</v>
       </c>
@@ -4614,7 +4664,7 @@
         <v>0x0A00</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>11</v>
       </c>
@@ -4706,7 +4756,7 @@
         <v>0x6A76</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>12</v>
       </c>
@@ -4798,7 +4848,7 @@
         <v>0xF045</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>13</v>
       </c>
@@ -4890,7 +4940,7 @@
         <v>0x9545</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>14</v>
       </c>
@@ -4982,7 +5032,7 @@
         <v>0x9566</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>15</v>
       </c>
@@ -5074,7 +5124,7 @@
         <v>0x9566</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>16</v>
       </c>
@@ -5166,7 +5216,7 @@
         <v>0x9545</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>17</v>
       </c>
@@ -5258,7 +5308,7 @@
         <v>0xF545</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>18</v>
       </c>
@@ -5350,7 +5400,7 @@
         <v>0x6275</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.75" thickTop="1"/>
+    <row r="56" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:Q17 K37 B21:Q36">
     <cfRule type="colorScale" priority="15">
